--- a/excels/SP/piecesSP_color_space.xlsx
+++ b/excels/SP/piecesSP_color_space.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -458,526 +458,526 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1D4+-009</t>
+          <t>1D0-001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="C2" t="n">
-        <v>103.681918408678</v>
+        <v>216.5324751632758</v>
       </c>
       <c r="D2" t="n">
-        <v>114</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2D2-017</t>
+          <t>1D0-002</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C3" t="n">
-        <v>136.5780513896863</v>
+        <v>192.9447896165801</v>
       </c>
       <c r="D3" t="n">
-        <v>149</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3D1-014</t>
+          <t>1D0-003</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" t="n">
-        <v>205.6744484436446</v>
+        <v>189.9635558489479</v>
       </c>
       <c r="D4" t="n">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1D6-003</t>
+          <t>1D0-004</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C5" t="n">
-        <v>71.88688131695251</v>
+        <v>183.4357358229251</v>
       </c>
       <c r="D5" t="n">
-        <v>83</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1D6-002</t>
+          <t>1D0-005</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="C6" t="n">
-        <v>73.61859727644301</v>
+        <v>190.038238502461</v>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2D3-013</t>
+          <t>1D0-006</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="C7" t="n">
-        <v>135.7586131718757</v>
+        <v>185.5574366822544</v>
       </c>
       <c r="D7" t="n">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2D2-016</t>
+          <t>1D1-001</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="C8" t="n">
-        <v>130.9934958971793</v>
+        <v>207.2854466840302</v>
       </c>
       <c r="D8" t="n">
-        <v>143</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1D4+-008</t>
+          <t>1D1-002</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C9" t="n">
-        <v>125.0891442009142</v>
+        <v>189.7990534802702</v>
       </c>
       <c r="D9" t="n">
-        <v>136</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2D6-008</t>
+          <t>1D1-003</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C10" t="n">
-        <v>69.3367122368976</v>
+        <v>185.8190312619357</v>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1D6-001</t>
+          <t>1D1-004</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C11" t="n">
-        <v>79.08431373557161</v>
+        <v>182.4760815817186</v>
       </c>
       <c r="D11" t="n">
-        <v>89</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2D6-009</t>
+          <t>1D1-005</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="C12" t="n">
-        <v>66.05005633486731</v>
+        <v>188.306770747183</v>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3D0-017</t>
+          <t>1D1-006</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C13" t="n">
-        <v>177.8584025882745</v>
+        <v>193.0172630229069</v>
       </c>
       <c r="D13" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1D3-008</t>
+          <t>1D2-001</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C14" t="n">
-        <v>138.9936616811518</v>
+        <v>178.6805532270654</v>
       </c>
       <c r="D14" t="n">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3D1-012</t>
+          <t>1D2-002</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
-        <v>193.1299484741738</v>
+        <v>153.339244332115</v>
       </c>
       <c r="D15" t="n">
-        <v>197</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2D3-014</t>
+          <t>1D2-003</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C16" t="n">
-        <v>138.9492854966624</v>
+        <v>148.0232616281096</v>
       </c>
       <c r="D16" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2D4+-029</t>
+          <t>1D2-004</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="C17" t="n">
-        <v>101.2885743598847</v>
+        <v>148.0008018854292</v>
       </c>
       <c r="D17" t="n">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3D5-026</t>
+          <t>1D2-005</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="C18" t="n">
-        <v>69.17158511104503</v>
+        <v>153.3481316411892</v>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1D6-005</t>
+          <t>1D2-006</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C19" t="n">
-        <v>80.44141905849091</v>
+        <v>154.0402518214074</v>
       </c>
       <c r="D19" t="n">
-        <v>97</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1D6-004</t>
+          <t>1D2-007</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="C20" t="n">
-        <v>67.12142682819884</v>
+        <v>159.2632188744436</v>
       </c>
       <c r="D20" t="n">
-        <v>77</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3D5-027</t>
+          <t>1D3-006</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C21" t="n">
-        <v>71.54440008016702</v>
+        <v>172.7728672790276</v>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2D4+-028</t>
+          <t>1D3-007</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C22" t="n">
-        <v>103.8538133442068</v>
+        <v>141.5515098696125</v>
       </c>
       <c r="D22" t="n">
-        <v>113</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2D3-015</t>
+          <t>1D3-008</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C23" t="n">
-        <v>135.217603204435</v>
+        <v>138.9936616811518</v>
       </c>
       <c r="D23" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3D1-013</t>
+          <t>1D3-010</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C24" t="n">
-        <v>210.303636214034</v>
+        <v>137.1875448088233</v>
       </c>
       <c r="D24" t="n">
-        <v>212</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3D1-007</t>
+          <t>1D3-011</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="C25" t="n">
-        <v>212.5892048512027</v>
+        <v>142.2989311864077</v>
       </c>
       <c r="D25" t="n">
-        <v>221</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3D0-016</t>
+          <t>1D3-012</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C26" t="n">
-        <v>175.1550302801435</v>
+        <v>154.594658319717</v>
       </c>
       <c r="D26" t="n">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3D1-011</t>
+          <t>1D4-007</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C27" t="n">
-        <v>197.2271568703175</v>
+        <v>106.6537944699322</v>
       </c>
       <c r="D27" t="n">
-        <v>202</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2D3-017</t>
+          <t>1D4-008</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C28" t="n">
-        <v>114.6516513168406</v>
+        <v>125.0891442009142</v>
       </c>
       <c r="D28" t="n">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3D5-025</t>
+          <t>1D4-009</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C29" t="n">
-        <v>72.89540401322492</v>
+        <v>103.681918408678</v>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3D5-031</t>
+          <t>1D4-010</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C30" t="n">
-        <v>89.05776363444009</v>
+        <v>98.09332669984514</v>
       </c>
       <c r="D30" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1D6-006</t>
+          <t>1D4-011</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C31" t="n">
-        <v>78.65955435100065</v>
+        <v>103.2404896981168</v>
       </c>
       <c r="D31" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1D6-007</t>
+          <t>1D4-012</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C32" t="n">
-        <v>84.29226425495776</v>
+        <v>105.2649526161246</v>
       </c>
       <c r="D32" t="n">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3D5-030</t>
+          <t>1D5-006</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C33" t="n">
-        <v>75.18053784753404</v>
+        <v>90.01306726643516</v>
       </c>
       <c r="D33" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3D5-024</t>
+          <t>1D5-007</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C34" t="n">
-        <v>76.22053818873742</v>
+        <v>76.99946343566272</v>
       </c>
       <c r="D34" t="n">
         <v>84</v>
@@ -986,1844 +986,1844 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2D3-016</t>
+          <t>1D5-008</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C35" t="n">
-        <v>132.4867508294943</v>
+        <v>72.23108544195942</v>
       </c>
       <c r="D35" t="n">
-        <v>143</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3D1-010</t>
+          <t>1D5-009</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C36" t="n">
-        <v>184.4771868587461</v>
+        <v>67.3646027951259</v>
       </c>
       <c r="D36" t="n">
-        <v>189</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3D0-015</t>
+          <t>1D5-010</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="C37" t="n">
-        <v>179.8709362372858</v>
+        <v>72.4183365573931</v>
       </c>
       <c r="D37" t="n">
-        <v>186</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2D5-020</t>
+          <t>1D5-011</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C38" t="n">
-        <v>64.92458907539854</v>
+        <v>75.96692271065629</v>
       </c>
       <c r="D38" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2D0-011</t>
+          <t>1D5-012</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="C39" t="n">
-        <v>206.821037241609</v>
+        <v>71.62571432577408</v>
       </c>
       <c r="D39" t="n">
-        <v>208</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2D1-015</t>
+          <t>1D6-001</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="C40" t="n">
-        <v>178.9582552368487</v>
+        <v>79.08431373557161</v>
       </c>
       <c r="D40" t="n">
-        <v>190</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2D0-010</t>
+          <t>1D6-002</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="C41" t="n">
-        <v>198.4000999374112</v>
+        <v>73.61859727644301</v>
       </c>
       <c r="D41" t="n">
-        <v>201</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2D5-021</t>
+          <t>1D6-003</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C42" t="n">
-        <v>68.27173756764992</v>
+        <v>71.88688131695251</v>
       </c>
       <c r="D42" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3D6-022</t>
+          <t>1D6-004</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C43" t="n">
-        <v>81.06966034876177</v>
+        <v>67.12142682819884</v>
       </c>
       <c r="D43" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3D6-020</t>
+          <t>1D6-005</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C44" t="n">
-        <v>66.56482134778062</v>
+        <v>80.44141905849091</v>
       </c>
       <c r="D44" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2D5-023</t>
+          <t>1D6-006</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C45" t="n">
-        <v>84.52228945729358</v>
+        <v>78.65955435100065</v>
       </c>
       <c r="D45" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2D0-012</t>
+          <t>1D6-007</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="C46" t="n">
-        <v>202.2103873694669</v>
+        <v>84.29226425495776</v>
       </c>
       <c r="D46" t="n">
-        <v>206</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3D2-014</t>
+          <t>2D0-007</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C47" t="n">
-        <v>164.6821492350447</v>
+        <v>216.5707244738919</v>
       </c>
       <c r="D47" t="n">
-        <v>175</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2D1-017</t>
+          <t>2D0-008</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="C48" t="n">
-        <v>169.5229698084376</v>
+        <v>202.0316660118382</v>
       </c>
       <c r="D48" t="n">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2D1-016</t>
+          <t>2D0-009</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C49" t="n">
-        <v>174.6765039197969</v>
+        <v>198.6283006712599</v>
       </c>
       <c r="D49" t="n">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3D2-015</t>
+          <t>2D0-010</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C50" t="n">
-        <v>162.8438785442975</v>
+        <v>198.4000999374112</v>
       </c>
       <c r="D50" t="n">
-        <v>172</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2D0-007</t>
+          <t>2D0-011</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C51" t="n">
-        <v>216.5707244738919</v>
+        <v>206.821037241609</v>
       </c>
       <c r="D51" t="n">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2D0-013</t>
+          <t>2D0-012</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C52" t="n">
-        <v>207.7612023255629</v>
+        <v>202.2103873694669</v>
       </c>
       <c r="D52" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2D5-022</t>
+          <t>2D0-013</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="C53" t="n">
-        <v>70.26422534755758</v>
+        <v>207.7612023255629</v>
       </c>
       <c r="D53" t="n">
-        <v>79</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3D6-021</t>
+          <t>2D0-014</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="C54" t="n">
-        <v>68.22736741827545</v>
+        <v>202.9860268294014</v>
       </c>
       <c r="D54" t="n">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1D5-006</t>
+          <t>2D1-015</t>
         </is>
       </c>
       <c r="B55" t="n">
+        <v>157</v>
+      </c>
+      <c r="C55" t="n">
+        <v>178.9582552368487</v>
+      </c>
+      <c r="D55" t="n">
         <v>190</v>
-      </c>
-      <c r="C55" t="n">
-        <v>90.01306726643516</v>
-      </c>
-      <c r="D55" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1D5-012</t>
+          <t>2D1-016</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C56" t="n">
-        <v>71.62571432577408</v>
+        <v>174.6765039197969</v>
       </c>
       <c r="D56" t="n">
-        <v>76</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3D6-019</t>
+          <t>2D1-017</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C57" t="n">
-        <v>59.13814656728568</v>
+        <v>169.5229698084376</v>
       </c>
       <c r="D57" t="n">
-        <v>66</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3D2-011</t>
+          <t>2D1-018</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C58" t="n">
-        <v>142.7406670019293</v>
+        <v>155.0612337262414</v>
       </c>
       <c r="D58" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3D2-010</t>
+          <t>2D1-019</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>169</v>
       </c>
       <c r="C59" t="n">
-        <v>150.7477851736816</v>
+        <v>166.443759361974</v>
       </c>
       <c r="D59" t="n">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3D6-018</t>
+          <t>2D1-020</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C60" t="n">
-        <v>66.04890805841211</v>
+        <v>157.8991342722637</v>
       </c>
       <c r="D60" t="n">
-        <v>76</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1D5-007</t>
+          <t>2D1-021</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C61" t="n">
-        <v>76.99946343566272</v>
+        <v>185.2011064850942</v>
       </c>
       <c r="D61" t="n">
-        <v>84</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1D5-011</t>
+          <t>2D1-022</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C62" t="n">
-        <v>75.96692271065629</v>
+        <v>190.0717495714066</v>
       </c>
       <c r="D62" t="n">
-        <v>81</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2D5-019</t>
+          <t>2D1-023</t>
         </is>
       </c>
       <c r="B63" t="n">
+        <v>156</v>
+      </c>
+      <c r="C63" t="n">
+        <v>184.2308845977289</v>
+      </c>
+      <c r="D63" t="n">
         <v>194</v>
-      </c>
-      <c r="C63" t="n">
-        <v>65.89477856701129</v>
-      </c>
-      <c r="D63" t="n">
-        <v>74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2D0-014</t>
+          <t>2D2-016</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="C64" t="n">
-        <v>202.9860268294014</v>
+        <v>130.9934958971793</v>
       </c>
       <c r="D64" t="n">
-        <v>204</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3D2-012</t>
+          <t>2D2-017</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C65" t="n">
-        <v>152.9647816233204</v>
+        <v>136.5780513896863</v>
       </c>
       <c r="D65" t="n">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3D2-013</t>
+          <t>2D2-018</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C66" t="n">
-        <v>154.4837682933752</v>
+        <v>129.155321201469</v>
       </c>
       <c r="D66" t="n">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2D5-018</t>
+          <t>2D2-020</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C67" t="n">
-        <v>66.37588462755473</v>
+        <v>118.7658011506955</v>
       </c>
       <c r="D67" t="n">
-        <v>74</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1D5-010</t>
+          <t>2D2-021</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C68" t="n">
-        <v>72.4183365573931</v>
+        <v>124.462372659222</v>
       </c>
       <c r="D68" t="n">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1D5-009</t>
+          <t>2D2-022</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C69" t="n">
-        <v>67.3646027951259</v>
+        <v>144.7658527379693</v>
       </c>
       <c r="D69" t="n">
-        <v>72</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2D5-015</t>
+          <t>2D2-023</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C70" t="n">
-        <v>64.57908928292372</v>
+        <v>150.6125516420354</v>
       </c>
       <c r="D70" t="n">
-        <v>71</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1D1-001</t>
+          <t>2D2-024</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C71" t="n">
-        <v>207.2854466840302</v>
+        <v>147.8013798878858</v>
       </c>
       <c r="D71" t="n">
-        <v>216</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2D1-021</t>
+          <t>2D2-025</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C72" t="n">
-        <v>185.2011064850942</v>
+        <v>143.3311387775493</v>
       </c>
       <c r="D72" t="n">
-        <v>192</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1D0-004</t>
+          <t>2D3-013</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C73" t="n">
-        <v>183.4357358229251</v>
+        <v>135.7586131718757</v>
       </c>
       <c r="D73" t="n">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2D1-020</t>
+          <t>2D3-014</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C74" t="n">
-        <v>157.8991342722637</v>
+        <v>138.9492854966624</v>
       </c>
       <c r="D74" t="n">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1D0-005</t>
+          <t>2D3-015</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C75" t="n">
-        <v>190.038238502461</v>
+        <v>135.217603204435</v>
       </c>
       <c r="D75" t="n">
-        <v>194</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2D5-014</t>
+          <t>2D3-016</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C76" t="n">
-        <v>76.77176697937475</v>
+        <v>132.4867508294943</v>
       </c>
       <c r="D76" t="n">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1D5-008</t>
+          <t>2D3-017</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C77" t="n">
-        <v>72.23108544195942</v>
+        <v>114.6516513168406</v>
       </c>
       <c r="D77" t="n">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2D5-016</t>
+          <t>2D3-018</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C78" t="n">
-        <v>62.36823255832931</v>
+        <v>118.5546465859761</v>
       </c>
       <c r="D78" t="n">
-        <v>69</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1D1-002</t>
+          <t>2D3-019</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="C79" t="n">
-        <v>189.7990534802702</v>
+        <v>118.3832624298006</v>
       </c>
       <c r="D79" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3D2-009</t>
+          <t>2D3-020</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C80" t="n">
-        <v>155.9713577239667</v>
+        <v>123.5158617508845</v>
       </c>
       <c r="D80" t="n">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2D1-022</t>
+          <t>2D3-022</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C81" t="n">
-        <v>190.0717495714066</v>
+        <v>127.8171963358677</v>
       </c>
       <c r="D81" t="n">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1D0-006</t>
+          <t>2D3-023</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C82" t="n">
-        <v>185.5574366822544</v>
+        <v>132.5964021864076</v>
       </c>
       <c r="D82" t="n">
-        <v>188</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2D1-023</t>
+          <t>2D4-021</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C83" t="n">
-        <v>184.2308845977289</v>
+        <v>100.0748480986327</v>
       </c>
       <c r="D83" t="n">
-        <v>194</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3D2-008</t>
+          <t>2D4-022</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="C84" t="n">
-        <v>185.2083625440306</v>
+        <v>97.54737711166021</v>
       </c>
       <c r="D84" t="n">
-        <v>199</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1D1-003</t>
+          <t>2D4-023</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="C85" t="n">
-        <v>185.8190312619357</v>
+        <v>90.68391583031099</v>
       </c>
       <c r="D85" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2D5-017</t>
+          <t>2D4-024</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C86" t="n">
-        <v>63.07631068276631</v>
+        <v>87.41676108426444</v>
       </c>
       <c r="D86" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2D5-013</t>
+          <t>2D4-025</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C87" t="n">
-        <v>72.28411370683764</v>
+        <v>87.04430256383299</v>
       </c>
       <c r="D87" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1D0-002</t>
+          <t>2D4-026</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="C88" t="n">
-        <v>192.9447896165801</v>
+        <v>90.25231725798663</v>
       </c>
       <c r="D88" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1D0-003</t>
+          <t>2D4-027</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="C89" t="n">
-        <v>189.9635558489479</v>
+        <v>101.3108473361815</v>
       </c>
       <c r="D89" t="n">
-        <v>198</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1D1-006</t>
+          <t>2D4-028</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="C90" t="n">
-        <v>193.0172630229069</v>
+        <v>103.8538133442068</v>
       </c>
       <c r="D90" t="n">
-        <v>197</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2D0-009</t>
+          <t>2D4-029</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C91" t="n">
-        <v>198.6283006712599</v>
+        <v>101.2885743598847</v>
       </c>
       <c r="D91" t="n">
-        <v>202</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1D1-004</t>
+          <t>2D4-030</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="C92" t="n">
-        <v>182.4760815817186</v>
+        <v>99.42042660783099</v>
       </c>
       <c r="D92" t="n">
-        <v>187</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2D1-018</t>
+          <t>2D5-013</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C93" t="n">
-        <v>155.0612337262414</v>
+        <v>72.28411370683764</v>
       </c>
       <c r="D93" t="n">
-        <v>163</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1D0-001</t>
+          <t>2D5-014</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="C94" t="n">
-        <v>216.5324751632758</v>
+        <v>76.77176697937475</v>
       </c>
       <c r="D94" t="n">
-        <v>217</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2D1-019</t>
+          <t>2D5-015</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C95" t="n">
-        <v>166.443759361974</v>
+        <v>64.57908928292372</v>
       </c>
       <c r="D95" t="n">
-        <v>174</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1D1-005</t>
+          <t>2D5-016</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="C96" t="n">
-        <v>188.306770747183</v>
+        <v>62.36823255832931</v>
       </c>
       <c r="D96" t="n">
-        <v>192</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2D0-008</t>
+          <t>2D5-017</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="C97" t="n">
-        <v>202.0316660118382</v>
+        <v>63.07631068276631</v>
       </c>
       <c r="D97" t="n">
-        <v>205</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3D0-018</t>
+          <t>2D5-018</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="C98" t="n">
-        <v>162.7891321227339</v>
+        <v>66.37588462755473</v>
       </c>
       <c r="D98" t="n">
-        <v>172</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2D2-022</t>
+          <t>2D5-019</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C99" t="n">
-        <v>144.7658527379693</v>
+        <v>65.89477856701129</v>
       </c>
       <c r="D99" t="n">
-        <v>154</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1D3-007</t>
+          <t>2D5-020</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C100" t="n">
-        <v>141.5515098696125</v>
+        <v>64.92458907539854</v>
       </c>
       <c r="D100" t="n">
-        <v>151</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3D1-009</t>
+          <t>2D5-021</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="C101" t="n">
-        <v>186.7617009045469</v>
+        <v>68.27173756764992</v>
       </c>
       <c r="D101" t="n">
-        <v>192</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1D2-002</t>
+          <t>2D5-022</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C102" t="n">
-        <v>153.339244332115</v>
+        <v>70.26422534755758</v>
       </c>
       <c r="D102" t="n">
-        <v>164</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2D4+-026</t>
+          <t>2D5-023</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C103" t="n">
-        <v>90.25231725798663</v>
+        <v>84.52228945729358</v>
       </c>
       <c r="D103" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2D6-016</t>
+          <t>2D6-008</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C104" t="n">
-        <v>58.79937578395572</v>
+        <v>69.3367122368976</v>
       </c>
       <c r="D104" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3D5-028</t>
+          <t>2D6-009</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C105" t="n">
-        <v>68.57422975079689</v>
+        <v>66.05005633486731</v>
       </c>
       <c r="D105" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2D6-017</t>
+          <t>2D6-010</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C106" t="n">
-        <v>57.85841906155699</v>
+        <v>59.12536390013743</v>
       </c>
       <c r="D106" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2D4+-027</t>
+          <t>2D6-011</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C107" t="n">
-        <v>101.3108473361815</v>
+        <v>60.99501285432635</v>
       </c>
       <c r="D107" t="n">
-        <v>110</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1D2-003</t>
+          <t>2D6-012</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="C108" t="n">
-        <v>148.0232616281096</v>
+        <v>60.93841739228986</v>
       </c>
       <c r="D108" t="n">
-        <v>157</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3D1-008</t>
+          <t>2D6-013</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C109" t="n">
-        <v>189.532665478574</v>
+        <v>62.9618221717219</v>
       </c>
       <c r="D109" t="n">
-        <v>194</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1D3-012</t>
+          <t>2D6-014</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C110" t="n">
-        <v>154.594658319717</v>
+        <v>59.35743185850755</v>
       </c>
       <c r="D110" t="n">
-        <v>165</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2D2-023</t>
+          <t>2D6-015</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="C111" t="n">
-        <v>150.6125516420354</v>
+        <v>63.47285153513137</v>
       </c>
       <c r="D111" t="n">
-        <v>161</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1D3-006</t>
+          <t>2D6-016</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="C112" t="n">
-        <v>172.7728672790276</v>
+        <v>58.79937578395572</v>
       </c>
       <c r="D112" t="n">
-        <v>186</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3D0-019</t>
+          <t>2D6-017</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="C113" t="n">
-        <v>170.6607514644998</v>
+        <v>57.85841906155699</v>
       </c>
       <c r="D113" t="n">
-        <v>179</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1D3-010</t>
+          <t>3D0-015</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="C114" t="n">
-        <v>137.1875448088233</v>
+        <v>179.8709362372858</v>
       </c>
       <c r="D114" t="n">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2D2-021</t>
+          <t>3D0-016</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="C115" t="n">
-        <v>124.462372659222</v>
+        <v>175.1550302801435</v>
       </c>
       <c r="D115" t="n">
-        <v>135</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1D2-001</t>
+          <t>3D0-017</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C116" t="n">
-        <v>178.6805532270654</v>
+        <v>177.8584025882745</v>
       </c>
       <c r="D116" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2D4+-025</t>
+          <t>3D0-018</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="C117" t="n">
-        <v>87.04430256383299</v>
+        <v>162.7891321227339</v>
       </c>
       <c r="D117" t="n">
-        <v>96</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2D3-018</t>
+          <t>3D0-019</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="C118" t="n">
-        <v>118.5546465859761</v>
+        <v>170.6607514644998</v>
       </c>
       <c r="D118" t="n">
-        <v>128</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2D6-015</t>
+          <t>3D0-020</t>
         </is>
       </c>
       <c r="B119" t="n">
+        <v>123</v>
+      </c>
+      <c r="C119" t="n">
+        <v>190.4325260942341</v>
+      </c>
+      <c r="D119" t="n">
         <v>196</v>
-      </c>
-      <c r="C119" t="n">
-        <v>63.47285153513137</v>
-      </c>
-      <c r="D119" t="n">
-        <v>72</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2D6-014</t>
+          <t>3D0-021</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="C120" t="n">
-        <v>59.35743185850755</v>
+        <v>192.5208728499618</v>
       </c>
       <c r="D120" t="n">
-        <v>64</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2D4+-030</t>
+          <t>3D0-022</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="C121" t="n">
-        <v>99.42042660783099</v>
+        <v>189.6658791394976</v>
       </c>
       <c r="D121" t="n">
-        <v>109</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2D3-019</t>
+          <t>3D1-007</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="C122" t="n">
-        <v>118.3832624298006</v>
+        <v>212.5892048512027</v>
       </c>
       <c r="D122" t="n">
-        <v>128</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2D4+-024</t>
+          <t>3D1-008</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="C123" t="n">
-        <v>87.41676108426444</v>
+        <v>189.532665478574</v>
       </c>
       <c r="D123" t="n">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2D2-020</t>
+          <t>3D1-009</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C124" t="n">
-        <v>118.7658011506955</v>
+        <v>186.7617009045469</v>
       </c>
       <c r="D124" t="n">
-        <v>129</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1D3-011</t>
+          <t>3D1-010</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C125" t="n">
-        <v>142.2989311864077</v>
+        <v>184.4771868587461</v>
       </c>
       <c r="D125" t="n">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3D0-022</t>
+          <t>3D1-011</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C126" t="n">
-        <v>189.6658791394976</v>
+        <v>197.2271568703175</v>
       </c>
       <c r="D126" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1D4+-012</t>
+          <t>3D1-012</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="C127" t="n">
-        <v>105.2649526161246</v>
+        <v>193.1299484741738</v>
       </c>
       <c r="D127" t="n">
-        <v>117</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2D2-018</t>
+          <t>3D1-013</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="C128" t="n">
-        <v>129.155321201469</v>
+        <v>210.303636214034</v>
       </c>
       <c r="D128" t="n">
-        <v>141</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2D2-024</t>
+          <t>3D1-014</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="C129" t="n">
-        <v>147.8013798878858</v>
+        <v>205.6744484436446</v>
       </c>
       <c r="D129" t="n">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1D2-004</t>
+          <t>3D2-008</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C130" t="n">
-        <v>148.0008018854292</v>
+        <v>185.2083625440306</v>
       </c>
       <c r="D130" t="n">
-        <v>156</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2D6-010</t>
+          <t>3D2-009</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C131" t="n">
-        <v>59.12536390013743</v>
+        <v>155.9713577239667</v>
       </c>
       <c r="D131" t="n">
-        <v>68</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2D6-011</t>
+          <t>3D2-010</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C132" t="n">
-        <v>60.99501285432635</v>
+        <v>150.7477851736816</v>
       </c>
       <c r="D132" t="n">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2D3-020</t>
+          <t>3D2-011</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C133" t="n">
-        <v>123.5158617508845</v>
+        <v>142.7406670019293</v>
       </c>
       <c r="D133" t="n">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1D2-005</t>
+          <t>3D2-012</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C134" t="n">
-        <v>153.3481316411892</v>
+        <v>152.9647816233204</v>
       </c>
       <c r="D134" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2D4+-021</t>
+          <t>3D2-013</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="C135" t="n">
-        <v>100.0748480986327</v>
+        <v>154.4837682933752</v>
       </c>
       <c r="D135" t="n">
-        <v>111</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2D2-025</t>
+          <t>3D2-014</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C136" t="n">
-        <v>143.3311387775493</v>
+        <v>164.6821492350447</v>
       </c>
       <c r="D136" t="n">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1D4+-007</t>
+          <t>3D2-015</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C137" t="n">
-        <v>106.6537944699322</v>
+        <v>162.8438785442975</v>
       </c>
       <c r="D137" t="n">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3D0-021</t>
+          <t>3D5-024</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="C138" t="n">
-        <v>192.5208728499618</v>
+        <v>76.22053818873742</v>
       </c>
       <c r="D138" t="n">
-        <v>197</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1D4+-011</t>
+          <t>3D5-025</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C139" t="n">
-        <v>103.2404896981168</v>
+        <v>72.89540401322492</v>
       </c>
       <c r="D139" t="n">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2D4+-023</t>
+          <t>3D5-026</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C140" t="n">
-        <v>90.68391583031099</v>
+        <v>69.17158511104503</v>
       </c>
       <c r="D140" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1D2-007</t>
+          <t>3D5-027</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C141" t="n">
-        <v>159.2632188744436</v>
+        <v>71.54440008016702</v>
       </c>
       <c r="D141" t="n">
-        <v>166</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2D3-022</t>
+          <t>3D5-028</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C142" t="n">
-        <v>127.8171963358677</v>
+        <v>68.57422975079689</v>
       </c>
       <c r="D142" t="n">
-        <v>139</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2D6-013</t>
+          <t>3D5-030</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C143" t="n">
-        <v>62.9618221717219</v>
+        <v>75.18053784753404</v>
       </c>
       <c r="D143" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2D6-012</t>
+          <t>3D5-031</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C144" t="n">
-        <v>60.93841739228986</v>
+        <v>89.05776363444009</v>
       </c>
       <c r="D144" t="n">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1D2-006</t>
+          <t>3D6-018</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C145" t="n">
-        <v>154.0402518214074</v>
+        <v>66.04890805841211</v>
       </c>
       <c r="D145" t="n">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2D3-023</t>
+          <t>3D6-019</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C146" t="n">
-        <v>132.5964021864076</v>
+        <v>59.13814656728568</v>
       </c>
       <c r="D146" t="n">
-        <v>143</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2D4+-022</t>
+          <t>3D6-020</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C147" t="n">
-        <v>97.54737711166021</v>
+        <v>66.56482134778062</v>
       </c>
       <c r="D147" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1D4+-010</t>
+          <t>3D6-021</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C148" t="n">
-        <v>98.09332669984514</v>
+        <v>68.22736741827545</v>
       </c>
       <c r="D148" t="n">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>3D0-020</t>
+          <t>3D6-022</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="C149" t="n">
-        <v>190.4325260942341</v>
+        <v>81.06966034876177</v>
       </c>
       <c r="D149" t="n">
-        <v>196</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>